--- a/Code/Results/Cases/Case_4_100/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_100/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.9946110870710885</v>
+        <v>1.029209278203259</v>
       </c>
       <c r="D2">
-        <v>1.01317532133028</v>
+        <v>1.032308037325799</v>
       </c>
       <c r="E2">
-        <v>1.009716196090478</v>
+        <v>1.042356610010721</v>
       </c>
       <c r="F2">
-        <v>1.011429636834546</v>
+        <v>1.049122976563314</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.04015830496987</v>
+        <v>1.030352992924349</v>
       </c>
       <c r="J2">
-        <v>1.016954183025391</v>
+        <v>1.034357321054633</v>
       </c>
       <c r="K2">
-        <v>1.024454104592575</v>
+        <v>1.035113643246921</v>
       </c>
       <c r="L2">
-        <v>1.021041808342354</v>
+        <v>1.04513352776347</v>
       </c>
       <c r="M2">
-        <v>1.022732002488739</v>
+        <v>1.051880912504861</v>
       </c>
       <c r="N2">
-        <v>1.009429764793291</v>
+        <v>1.015424632022812</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>0.9993151030842342</v>
+        <v>1.030202488257701</v>
       </c>
       <c r="D3">
-        <v>1.016535468917753</v>
+        <v>1.03302903784714</v>
       </c>
       <c r="E3">
-        <v>1.014219627442655</v>
+        <v>1.043371509406735</v>
       </c>
       <c r="F3">
-        <v>1.016512249649504</v>
+        <v>1.050281660440898</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.041107311862031</v>
+        <v>1.030485586480603</v>
       </c>
       <c r="J3">
-        <v>1.019824456509704</v>
+        <v>1.034991242670671</v>
       </c>
       <c r="K3">
-        <v>1.026961058240403</v>
+        <v>1.035643623758048</v>
       </c>
       <c r="L3">
-        <v>1.02467374182039</v>
+        <v>1.045958707350577</v>
       </c>
       <c r="M3">
-        <v>1.026938124169825</v>
+        <v>1.052850884038371</v>
       </c>
       <c r="N3">
-        <v>1.010406433796654</v>
+        <v>1.015637786353417</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.002294564650448</v>
+        <v>1.03084545161165</v>
       </c>
       <c r="D4">
-        <v>1.018665088119111</v>
+        <v>1.033495504600651</v>
       </c>
       <c r="E4">
-        <v>1.017077679004591</v>
+        <v>1.044028928376299</v>
       </c>
       <c r="F4">
-        <v>1.019738533580696</v>
+        <v>1.051032415761432</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.041696935738671</v>
+        <v>1.030569972184456</v>
       </c>
       <c r="J4">
-        <v>1.021639756796068</v>
+        <v>1.035401140402664</v>
       </c>
       <c r="K4">
-        <v>1.028543342669997</v>
+        <v>1.035985819453958</v>
       </c>
       <c r="L4">
-        <v>1.026974269807976</v>
+        <v>1.046492756877477</v>
       </c>
       <c r="M4">
-        <v>1.029604428653937</v>
+        <v>1.053478950129875</v>
       </c>
       <c r="N4">
-        <v>1.011023768952777</v>
+        <v>1.015775529572001</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.003532302202865</v>
+        <v>1.031115822494565</v>
       </c>
       <c r="D5">
-        <v>1.019550036663364</v>
+        <v>1.033691589698016</v>
       </c>
       <c r="E5">
-        <v>1.018266305453046</v>
+        <v>1.044305476978224</v>
       </c>
       <c r="F5">
-        <v>1.021080483970871</v>
+        <v>1.051348274566705</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.041939082210386</v>
+        <v>1.03060510967482</v>
       </c>
       <c r="J5">
-        <v>1.022393193942931</v>
+        <v>1.035573390981896</v>
       </c>
       <c r="K5">
-        <v>1.029199267440873</v>
+        <v>1.036129501328164</v>
       </c>
       <c r="L5">
-        <v>1.027929958005211</v>
+        <v>1.046717295469083</v>
       </c>
       <c r="M5">
-        <v>1.030712579627159</v>
+        <v>1.053743091532767</v>
       </c>
       <c r="N5">
-        <v>1.011279902134377</v>
+        <v>1.015833393026995</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.003739270487731</v>
+        <v>1.031161222996946</v>
       </c>
       <c r="D6">
-        <v>1.019698026413002</v>
+        <v>1.033724512190227</v>
       </c>
       <c r="E6">
-        <v>1.018465138775492</v>
+        <v>1.044351920637505</v>
       </c>
       <c r="F6">
-        <v>1.02130497657009</v>
+        <v>1.051401322787201</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.04197940697829</v>
+        <v>1.030610989566247</v>
       </c>
       <c r="J6">
-        <v>1.022519138927517</v>
+        <v>1.035602308466655</v>
       </c>
       <c r="K6">
-        <v>1.029308864515341</v>
+        <v>1.036153615735111</v>
       </c>
       <c r="L6">
-        <v>1.028089762263093</v>
+        <v>1.046754997888789</v>
       </c>
       <c r="M6">
-        <v>1.030897908215437</v>
+        <v>1.053787448029703</v>
       </c>
       <c r="N6">
-        <v>1.011322712032522</v>
+        <v>1.015843105980322</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.002311160881698</v>
+        <v>1.030849064049572</v>
       </c>
       <c r="D7">
-        <v>1.018676953050376</v>
+        <v>1.033498124769516</v>
       </c>
       <c r="E7">
-        <v>1.01709361152684</v>
+        <v>1.044032622966318</v>
       </c>
       <c r="F7">
-        <v>1.019756520536411</v>
+        <v>1.051036635334691</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.041700193675943</v>
+        <v>1.030570443022973</v>
       </c>
       <c r="J7">
-        <v>1.021649862009227</v>
+        <v>1.035403442300737</v>
       </c>
       <c r="K7">
-        <v>1.028552143223302</v>
+        <v>1.035987740035369</v>
       </c>
       <c r="L7">
-        <v>1.026987084232138</v>
+        <v>1.04649575707881</v>
       </c>
       <c r="M7">
-        <v>1.029619285349714</v>
+        <v>1.053482479198343</v>
       </c>
       <c r="N7">
-        <v>1.011027204614549</v>
+        <v>1.015776302918714</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>0.9962145134626089</v>
+        <v>1.029544877928804</v>
       </c>
       <c r="D8">
-        <v>1.014320347709371</v>
+        <v>1.032551716438082</v>
       </c>
       <c r="E8">
-        <v>1.01125005061187</v>
+        <v>1.042699452397406</v>
       </c>
       <c r="F8">
-        <v>1.013160633978668</v>
+        <v>1.049514349979377</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.040484163381413</v>
+        <v>1.030398095483686</v>
       </c>
       <c r="J8">
-        <v>1.017933097413831</v>
+        <v>1.034571617959259</v>
       </c>
       <c r="K8">
-        <v>1.025309772715301</v>
+        <v>1.035292904834694</v>
       </c>
       <c r="L8">
-        <v>1.022279759013898</v>
+        <v>1.045412379393043</v>
       </c>
       <c r="M8">
-        <v>1.024165238884619</v>
+        <v>1.052208629698419</v>
       </c>
       <c r="N8">
-        <v>1.009762932500568</v>
+        <v>1.015496706037365</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9849509712198675</v>
+        <v>1.027248971704643</v>
       </c>
       <c r="D9">
-        <v>1.006285549782011</v>
+        <v>1.030883543548369</v>
       </c>
       <c r="E9">
-        <v>1.00050039251673</v>
+        <v>1.040355708469733</v>
       </c>
       <c r="F9">
-        <v>1.001031192985298</v>
+        <v>1.046839635700699</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.038148319331273</v>
+        <v>1.030083607387153</v>
       </c>
       <c r="J9">
-        <v>1.01104657558911</v>
+        <v>1.03310362472123</v>
       </c>
       <c r="K9">
-        <v>1.019277464881729</v>
+        <v>1.034062902700263</v>
       </c>
       <c r="L9">
-        <v>1.013585356415013</v>
+        <v>1.043504142529505</v>
       </c>
       <c r="M9">
-        <v>1.014107561928693</v>
+        <v>1.049967253971992</v>
       </c>
       <c r="N9">
-        <v>1.00741782288346</v>
+        <v>1.015002638541408</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9770506493603347</v>
+        <v>1.025719889096323</v>
       </c>
       <c r="D10">
-        <v>1.000664263557741</v>
+        <v>1.029771166583042</v>
       </c>
       <c r="E10">
-        <v>0.9929939642717702</v>
+        <v>1.038796925302337</v>
       </c>
       <c r="F10">
-        <v>0.9925624920167458</v>
+        <v>1.045061721176115</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.036452587226834</v>
+        <v>1.029866718497014</v>
       </c>
       <c r="J10">
-        <v>1.006205339744939</v>
+        <v>1.032123505234657</v>
       </c>
       <c r="K10">
-        <v>1.015021534869469</v>
+        <v>1.033239168668101</v>
       </c>
       <c r="L10">
-        <v>1.007490877615428</v>
+        <v>1.042232560466174</v>
       </c>
       <c r="M10">
-        <v>1.007067344095736</v>
+        <v>1.048475252674943</v>
       </c>
       <c r="N10">
-        <v>1.005767747475736</v>
+        <v>1.014672345300848</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9735268059460479</v>
+        <v>1.025058143355024</v>
       </c>
       <c r="D11">
-        <v>0.9981615218701371</v>
+        <v>1.02928944554938</v>
       </c>
       <c r="E11">
-        <v>0.9896542525435594</v>
+        <v>1.0381228419226</v>
       </c>
       <c r="F11">
-        <v>0.9887945574659702</v>
+        <v>1.044293107990037</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.035683335125951</v>
+        <v>1.029771093247723</v>
       </c>
       <c r="J11">
-        <v>1.004043932303073</v>
+        <v>1.031698762919186</v>
       </c>
       <c r="K11">
-        <v>1.013118192679052</v>
+        <v>1.03288160583057</v>
       </c>
       <c r="L11">
-        <v>1.004773947902461</v>
+        <v>1.041682093548769</v>
       </c>
       <c r="M11">
-        <v>1.003930931740342</v>
+        <v>1.047829737449639</v>
       </c>
       <c r="N11">
-        <v>1.005030785777683</v>
+        <v>1.014529110540685</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9722014884345923</v>
+        <v>1.024812395324517</v>
       </c>
       <c r="D12">
-        <v>0.9972210304485667</v>
+        <v>1.029110505688615</v>
       </c>
       <c r="E12">
-        <v>0.9883995008901336</v>
+        <v>1.037872589987436</v>
       </c>
       <c r="F12">
-        <v>0.9873788704990324</v>
+        <v>1.044007796632134</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.035392146214109</v>
+        <v>1.02973531708455</v>
       </c>
       <c r="J12">
-        <v>1.003230773042341</v>
+        <v>1.031540943426437</v>
       </c>
       <c r="K12">
-        <v>1.012401665495815</v>
+        <v>1.032748659399949</v>
       </c>
       <c r="L12">
-        <v>1.00375237470381</v>
+        <v>1.041477646510307</v>
       </c>
       <c r="M12">
-        <v>1.002751932943642</v>
+        <v>1.047590044422325</v>
       </c>
       <c r="N12">
-        <v>1.004753493351653</v>
+        <v>1.014475874590485</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9724865317655201</v>
+        <v>1.024865106674181</v>
       </c>
       <c r="D13">
-        <v>0.9974232697124897</v>
+        <v>1.029148889207468</v>
       </c>
       <c r="E13">
-        <v>0.9886693071085133</v>
+        <v>1.037926263867558</v>
       </c>
       <c r="F13">
-        <v>0.987683285056228</v>
+        <v>1.044068988476106</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.035454857389014</v>
+        <v>1.029743002802882</v>
       </c>
       <c r="J13">
-        <v>1.003405674296651</v>
+        <v>1.031574798557472</v>
       </c>
       <c r="K13">
-        <v>1.012555802402211</v>
+        <v>1.032777182809066</v>
       </c>
       <c r="L13">
-        <v>1.003972077347293</v>
+        <v>1.041521500142961</v>
       </c>
       <c r="M13">
-        <v>1.003005478727672</v>
+        <v>1.047641455762764</v>
       </c>
       <c r="N13">
-        <v>1.00481313723614</v>
+        <v>1.014487295335487</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9734175951275376</v>
+        <v>1.025037828647737</v>
       </c>
       <c r="D14">
-        <v>0.998084005408075</v>
+        <v>1.029274654466398</v>
       </c>
       <c r="E14">
-        <v>0.98955082962551</v>
+        <v>1.038102153311129</v>
       </c>
       <c r="F14">
-        <v>0.9886778706620083</v>
+        <v>1.044269520272849</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.035659377824909</v>
+        <v>1.029768141213186</v>
       </c>
       <c r="J14">
-        <v>1.003976929977593</v>
+        <v>1.031685718554488</v>
       </c>
       <c r="K14">
-        <v>1.013059161690536</v>
+        <v>1.032870619119615</v>
       </c>
       <c r="L14">
-        <v>1.004689761031133</v>
+        <v>1.04166519346458</v>
       </c>
       <c r="M14">
-        <v>1.003833765569808</v>
+        <v>1.047809922714301</v>
       </c>
       <c r="N14">
-        <v>1.005007938227431</v>
+        <v>1.01452471069574</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9739890508720827</v>
+        <v>1.025144255490019</v>
       </c>
       <c r="D15">
-        <v>0.9984896503019217</v>
+        <v>1.029352141665217</v>
       </c>
       <c r="E15">
-        <v>0.9900920534638434</v>
+        <v>1.038210542192227</v>
       </c>
       <c r="F15">
-        <v>0.9892885036983362</v>
+        <v>1.044393099157128</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.035784660682387</v>
+        <v>1.029783595814585</v>
       </c>
       <c r="J15">
-        <v>1.004327515830579</v>
+        <v>1.031754053242086</v>
       </c>
       <c r="K15">
-        <v>1.013368019564693</v>
+        <v>1.032928170885102</v>
       </c>
       <c r="L15">
-        <v>1.005130287701079</v>
+        <v>1.041753730441143</v>
       </c>
       <c r="M15">
-        <v>1.004342221485473</v>
+        <v>1.047913731381152</v>
       </c>
       <c r="N15">
-        <v>1.005127485363976</v>
+        <v>1.014547759275803</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9772822677461597</v>
+        <v>1.025763814518463</v>
       </c>
       <c r="D16">
-        <v>1.00082886972937</v>
+        <v>1.029803135756209</v>
       </c>
       <c r="E16">
-        <v>0.9932136594136058</v>
+        <v>1.038841680574068</v>
       </c>
       <c r="F16">
-        <v>0.9928103519206495</v>
+        <v>1.045112757548197</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.036502886237857</v>
+        <v>1.029873028813278</v>
       </c>
       <c r="J16">
-        <v>1.006347368664865</v>
+        <v>1.032151686768545</v>
       </c>
       <c r="K16">
-        <v>1.015146540994452</v>
+        <v>1.033262880436679</v>
       </c>
       <c r="L16">
-        <v>1.007669492383962</v>
+        <v>1.042269096050613</v>
       </c>
       <c r="M16">
-        <v>1.007273579014554</v>
+        <v>1.04851810460841</v>
       </c>
       <c r="N16">
-        <v>1.005816169057584</v>
+        <v>1.014681846795461</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9793198127485059</v>
+        <v>1.026152543243296</v>
       </c>
       <c r="D17">
-        <v>1.002277440138549</v>
+        <v>1.030086018532436</v>
       </c>
       <c r="E17">
-        <v>0.995147280890482</v>
+        <v>1.039237812917293</v>
       </c>
       <c r="F17">
-        <v>0.9949918474938186</v>
+        <v>1.045564511155233</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.036943907640383</v>
+        <v>1.029928669960309</v>
       </c>
       <c r="J17">
-        <v>1.007596570741087</v>
+        <v>1.032401019937994</v>
       </c>
       <c r="K17">
-        <v>1.016245655067914</v>
+        <v>1.033472599582852</v>
       </c>
       <c r="L17">
-        <v>1.009240934230838</v>
+        <v>1.04259240809302</v>
       </c>
       <c r="M17">
-        <v>1.009088261302094</v>
+        <v>1.048897354365065</v>
       </c>
       <c r="N17">
-        <v>1.006242026319471</v>
+        <v>1.014765898777983</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9804984119518034</v>
+        <v>1.026379316578273</v>
       </c>
       <c r="D18">
-        <v>1.003115778045708</v>
+        <v>1.030251013950069</v>
       </c>
       <c r="E18">
-        <v>0.9962665633626711</v>
+        <v>1.039468955090899</v>
       </c>
       <c r="F18">
-        <v>0.996254606041635</v>
+        <v>1.045828130590333</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.037197786166675</v>
+        <v>1.029960959396042</v>
       </c>
       <c r="J18">
-        <v>1.008318964046958</v>
+        <v>1.032546418527935</v>
       </c>
       <c r="K18">
-        <v>1.01688094496908</v>
+        <v>1.033594840209065</v>
       </c>
       <c r="L18">
-        <v>1.010150053481147</v>
+        <v>1.042781003683006</v>
       </c>
       <c r="M18">
-        <v>1.01013830457013</v>
+        <v>1.049118615565139</v>
       </c>
       <c r="N18">
-        <v>1.006488266405456</v>
+        <v>1.014814904060294</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9808986376352541</v>
+        <v>1.026456646263408</v>
       </c>
       <c r="D19">
-        <v>1.003400527870798</v>
+        <v>1.030307272191975</v>
       </c>
       <c r="E19">
-        <v>0.996646780274669</v>
+        <v>1.039547782982808</v>
       </c>
       <c r="F19">
-        <v>0.9966835612413835</v>
+        <v>1.045918038218102</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.037283787727429</v>
+        <v>1.029971941243759</v>
       </c>
       <c r="J19">
-        <v>1.008564237740712</v>
+        <v>1.032595990040821</v>
       </c>
       <c r="K19">
-        <v>1.017096591009129</v>
+        <v>1.033636506666591</v>
       </c>
       <c r="L19">
-        <v>1.010458791057536</v>
+        <v>1.042845312123784</v>
       </c>
       <c r="M19">
-        <v>1.010494935066334</v>
+        <v>1.049194068598533</v>
       </c>
       <c r="N19">
-        <v>1.006571867486705</v>
+        <v>1.014831610057833</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9791022305211939</v>
+        <v>1.026110832765877</v>
       </c>
       <c r="D20">
-        <v>1.002122707535849</v>
+        <v>1.030055668430963</v>
       </c>
       <c r="E20">
-        <v>0.9949407132817647</v>
+        <v>1.039195302883097</v>
       </c>
       <c r="F20">
-        <v>0.9947588005699004</v>
+        <v>1.045516029937846</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.036896939325923</v>
+        <v>1.029922717266673</v>
       </c>
       <c r="J20">
-        <v>1.007463192866105</v>
+        <v>1.032374272282607</v>
       </c>
       <c r="K20">
-        <v>1.016128334102587</v>
+        <v>1.033450107491</v>
       </c>
       <c r="L20">
-        <v>1.00907311136433</v>
+        <v>1.042557718408162</v>
       </c>
       <c r="M20">
-        <v>1.008894440505221</v>
+        <v>1.048856659154048</v>
       </c>
       <c r="N20">
-        <v>1.006196560026155</v>
+        <v>1.014756882947389</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9731438809334463</v>
+        <v>1.024986964845089</v>
       </c>
       <c r="D21">
-        <v>0.9978897396061096</v>
+        <v>1.02923761992385</v>
       </c>
       <c r="E21">
-        <v>0.9892916429225428</v>
+        <v>1.038050354588768</v>
       </c>
       <c r="F21">
-        <v>0.9883854426081189</v>
+        <v>1.044210463526348</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.035599303886659</v>
+        <v>1.02976074566086</v>
       </c>
       <c r="J21">
-        <v>1.003808998679526</v>
+        <v>1.031653056792369</v>
       </c>
       <c r="K21">
-        <v>1.012911202111605</v>
+        <v>1.032843108084797</v>
       </c>
       <c r="L21">
-        <v>1.00447876857473</v>
+        <v>1.041622878783291</v>
       </c>
       <c r="M21">
-        <v>1.003590248665074</v>
+        <v>1.047760311183563</v>
       </c>
       <c r="N21">
-        <v>1.004950673728858</v>
+        <v>1.014513693691416</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9693021960201074</v>
+        <v>1.024280655836066</v>
       </c>
       <c r="D22">
-        <v>0.9951651637367165</v>
+        <v>1.02872323906031</v>
       </c>
       <c r="E22">
-        <v>0.9856570498978633</v>
+        <v>1.037331247816246</v>
       </c>
       <c r="F22">
-        <v>0.9842845399113175</v>
+        <v>1.043390677189009</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.034751762194456</v>
+        <v>1.029657422745232</v>
       </c>
       <c r="J22">
-        <v>1.001451480805279</v>
+        <v>1.031199303474358</v>
       </c>
       <c r="K22">
-        <v>1.010833012008137</v>
+        <v>1.032460701959304</v>
       </c>
       <c r="L22">
-        <v>1.001518100654061</v>
+        <v>1.041035229024694</v>
       </c>
       <c r="M22">
-        <v>1.000173886769235</v>
+        <v>1.04707145708849</v>
       </c>
       <c r="N22">
-        <v>1.004146687175357</v>
+        <v>1.014360604858359</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9713481244706814</v>
+        <v>1.024655054041482</v>
       </c>
       <c r="D23">
-        <v>0.9966156896785894</v>
+        <v>1.028995925682192</v>
       </c>
       <c r="E23">
-        <v>0.9875919500985005</v>
+        <v>1.037712387011531</v>
       </c>
       <c r="F23">
-        <v>0.9864677242661545</v>
+        <v>1.043825159471691</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.035204131757649</v>
+        <v>1.029712336812496</v>
       </c>
       <c r="J23">
-        <v>1.002707119797583</v>
+        <v>1.031439874661302</v>
       </c>
       <c r="K23">
-        <v>1.011940116156425</v>
+        <v>1.032663494656014</v>
       </c>
       <c r="L23">
-        <v>1.003094670501326</v>
+        <v>1.041346741683404</v>
       </c>
       <c r="M23">
-        <v>1.001992958166063</v>
+        <v>1.047436587664689</v>
       </c>
       <c r="N23">
-        <v>1.0045749153798</v>
+        <v>1.014441777715</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9792005769851515</v>
+        <v>1.02612967982868</v>
       </c>
       <c r="D24">
-        <v>1.002192644860294</v>
+        <v>1.030069382351906</v>
       </c>
       <c r="E24">
-        <v>0.9950340787059042</v>
+        <v>1.039214511075412</v>
       </c>
       <c r="F24">
-        <v>0.9948641342603926</v>
+        <v>1.045537936144721</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.036918172659945</v>
+        <v>1.029925407542855</v>
       </c>
       <c r="J24">
-        <v>1.007523479847008</v>
+        <v>1.032386358499384</v>
       </c>
       <c r="K24">
-        <v>1.016181364302169</v>
+        <v>1.033460270961804</v>
       </c>
       <c r="L24">
-        <v>1.009148966348642</v>
+        <v>1.042573393142882</v>
       </c>
       <c r="M24">
-        <v>1.008982045775115</v>
+        <v>1.048875047409818</v>
       </c>
       <c r="N24">
-        <v>1.006217110934515</v>
+        <v>1.014760956877476</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9879286249754888</v>
+        <v>1.027842251640741</v>
       </c>
       <c r="D25">
-        <v>1.008407534749568</v>
+        <v>1.031314856836812</v>
       </c>
       <c r="E25">
-        <v>1.003336593978067</v>
+        <v>1.040960970480536</v>
       </c>
       <c r="F25">
-        <v>1.004231106776488</v>
+        <v>1.047530193380414</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.03877592670082</v>
+        <v>1.030166186238466</v>
       </c>
       <c r="J25">
-        <v>1.01286918203219</v>
+        <v>1.033483395239448</v>
       </c>
       <c r="K25">
-        <v>1.02087672166032</v>
+        <v>1.034381548687026</v>
       </c>
       <c r="L25">
-        <v>1.015883333499237</v>
+        <v>1.043997368147063</v>
       </c>
       <c r="M25">
-        <v>1.016764093432324</v>
+        <v>1.050546308643906</v>
       </c>
       <c r="N25">
-        <v>1.008038760755937</v>
+        <v>1.015130529137956</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_100/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_100/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.029209278203259</v>
+        <v>0.9946110870710895</v>
       </c>
       <c r="D2">
-        <v>1.032308037325799</v>
+        <v>1.013175321330281</v>
       </c>
       <c r="E2">
-        <v>1.042356610010721</v>
+        <v>1.00971619609048</v>
       </c>
       <c r="F2">
-        <v>1.049122976563314</v>
+        <v>1.011429636834548</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.030352992924349</v>
+        <v>1.04015830496987</v>
       </c>
       <c r="J2">
-        <v>1.034357321054633</v>
+        <v>1.016954183025392</v>
       </c>
       <c r="K2">
-        <v>1.035113643246921</v>
+        <v>1.024454104592576</v>
       </c>
       <c r="L2">
-        <v>1.04513352776347</v>
+        <v>1.021041808342355</v>
       </c>
       <c r="M2">
-        <v>1.051880912504861</v>
+        <v>1.022732002488741</v>
       </c>
       <c r="N2">
-        <v>1.015424632022812</v>
+        <v>1.009429764793291</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.030202488257701</v>
+        <v>0.9993151030842344</v>
       </c>
       <c r="D3">
-        <v>1.03302903784714</v>
+        <v>1.016535468917753</v>
       </c>
       <c r="E3">
-        <v>1.043371509406735</v>
+        <v>1.014219627442655</v>
       </c>
       <c r="F3">
-        <v>1.050281660440898</v>
+        <v>1.016512249649505</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.030485586480603</v>
+        <v>1.041107311862031</v>
       </c>
       <c r="J3">
-        <v>1.034991242670671</v>
+        <v>1.019824456509704</v>
       </c>
       <c r="K3">
-        <v>1.035643623758048</v>
+        <v>1.026961058240403</v>
       </c>
       <c r="L3">
-        <v>1.045958707350577</v>
+        <v>1.02467374182039</v>
       </c>
       <c r="M3">
-        <v>1.052850884038371</v>
+        <v>1.026938124169825</v>
       </c>
       <c r="N3">
-        <v>1.015637786353417</v>
+        <v>1.010406433796654</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.03084545161165</v>
+        <v>1.002294564650447</v>
       </c>
       <c r="D4">
-        <v>1.033495504600651</v>
+        <v>1.01866508811911</v>
       </c>
       <c r="E4">
-        <v>1.044028928376299</v>
+        <v>1.017077679004589</v>
       </c>
       <c r="F4">
-        <v>1.051032415761432</v>
+        <v>1.019738533580695</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.030569972184456</v>
+        <v>1.04169693573867</v>
       </c>
       <c r="J4">
-        <v>1.035401140402664</v>
+        <v>1.021639756796067</v>
       </c>
       <c r="K4">
-        <v>1.035985819453958</v>
+        <v>1.028543342669996</v>
       </c>
       <c r="L4">
-        <v>1.046492756877477</v>
+        <v>1.026974269807974</v>
       </c>
       <c r="M4">
-        <v>1.053478950129875</v>
+        <v>1.029604428653935</v>
       </c>
       <c r="N4">
-        <v>1.015775529572001</v>
+        <v>1.011023768952776</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.031115822494565</v>
+        <v>1.003532302202865</v>
       </c>
       <c r="D5">
-        <v>1.033691589698016</v>
+        <v>1.019550036663364</v>
       </c>
       <c r="E5">
-        <v>1.044305476978224</v>
+        <v>1.018266305453046</v>
       </c>
       <c r="F5">
-        <v>1.051348274566705</v>
+        <v>1.021080483970871</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.03060510967482</v>
+        <v>1.041939082210386</v>
       </c>
       <c r="J5">
-        <v>1.035573390981896</v>
+        <v>1.022393193942931</v>
       </c>
       <c r="K5">
-        <v>1.036129501328164</v>
+        <v>1.029199267440873</v>
       </c>
       <c r="L5">
-        <v>1.046717295469083</v>
+        <v>1.027929958005211</v>
       </c>
       <c r="M5">
-        <v>1.053743091532767</v>
+        <v>1.030712579627159</v>
       </c>
       <c r="N5">
-        <v>1.015833393026995</v>
+        <v>1.011279902134376</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.031161222996946</v>
+        <v>1.003739270487732</v>
       </c>
       <c r="D6">
-        <v>1.033724512190227</v>
+        <v>1.019698026413003</v>
       </c>
       <c r="E6">
-        <v>1.044351920637505</v>
+        <v>1.018465138775492</v>
       </c>
       <c r="F6">
-        <v>1.051401322787201</v>
+        <v>1.02130497657009</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.030610989566247</v>
+        <v>1.04197940697829</v>
       </c>
       <c r="J6">
-        <v>1.035602308466655</v>
+        <v>1.022519138927518</v>
       </c>
       <c r="K6">
-        <v>1.036153615735111</v>
+        <v>1.029308864515341</v>
       </c>
       <c r="L6">
-        <v>1.046754997888789</v>
+        <v>1.028089762263094</v>
       </c>
       <c r="M6">
-        <v>1.053787448029703</v>
+        <v>1.030897908215437</v>
       </c>
       <c r="N6">
-        <v>1.015843105980322</v>
+        <v>1.011322712032522</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.030849064049572</v>
+        <v>1.002311160881698</v>
       </c>
       <c r="D7">
-        <v>1.033498124769516</v>
+        <v>1.018676953050375</v>
       </c>
       <c r="E7">
-        <v>1.044032622966318</v>
+        <v>1.01709361152684</v>
       </c>
       <c r="F7">
-        <v>1.051036635334691</v>
+        <v>1.019756520536411</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.030570443022973</v>
+        <v>1.041700193675943</v>
       </c>
       <c r="J7">
-        <v>1.035403442300737</v>
+        <v>1.021649862009227</v>
       </c>
       <c r="K7">
-        <v>1.035987740035369</v>
+        <v>1.028552143223301</v>
       </c>
       <c r="L7">
-        <v>1.04649575707881</v>
+        <v>1.026987084232138</v>
       </c>
       <c r="M7">
-        <v>1.053482479198343</v>
+        <v>1.029619285349714</v>
       </c>
       <c r="N7">
-        <v>1.015776302918714</v>
+        <v>1.011027204614549</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.029544877928804</v>
+        <v>0.9962145134626083</v>
       </c>
       <c r="D8">
-        <v>1.032551716438082</v>
+        <v>1.014320347709371</v>
       </c>
       <c r="E8">
-        <v>1.042699452397406</v>
+        <v>1.011250050611869</v>
       </c>
       <c r="F8">
-        <v>1.049514349979377</v>
+        <v>1.013160633978668</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.030398095483686</v>
+        <v>1.040484163381412</v>
       </c>
       <c r="J8">
-        <v>1.034571617959259</v>
+        <v>1.017933097413831</v>
       </c>
       <c r="K8">
-        <v>1.035292904834694</v>
+        <v>1.0253097727153</v>
       </c>
       <c r="L8">
-        <v>1.045412379393043</v>
+        <v>1.022279759013897</v>
       </c>
       <c r="M8">
-        <v>1.052208629698419</v>
+        <v>1.024165238884619</v>
       </c>
       <c r="N8">
-        <v>1.015496706037365</v>
+        <v>1.009762932500568</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.027248971704643</v>
+        <v>0.9849509712198681</v>
       </c>
       <c r="D9">
-        <v>1.030883543548369</v>
+        <v>1.006285549782011</v>
       </c>
       <c r="E9">
-        <v>1.040355708469733</v>
+        <v>1.00050039251673</v>
       </c>
       <c r="F9">
-        <v>1.046839635700699</v>
+        <v>1.001031192985299</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.030083607387153</v>
+        <v>1.038148319331273</v>
       </c>
       <c r="J9">
-        <v>1.03310362472123</v>
+        <v>1.011046575589111</v>
       </c>
       <c r="K9">
-        <v>1.034062902700263</v>
+        <v>1.019277464881729</v>
       </c>
       <c r="L9">
-        <v>1.043504142529505</v>
+        <v>1.013585356415013</v>
       </c>
       <c r="M9">
-        <v>1.049967253971992</v>
+        <v>1.014107561928694</v>
       </c>
       <c r="N9">
-        <v>1.015002638541408</v>
+        <v>1.007417822883461</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.025719889096323</v>
+        <v>0.9770506493603346</v>
       </c>
       <c r="D10">
-        <v>1.029771166583042</v>
+        <v>1.00066426355774</v>
       </c>
       <c r="E10">
-        <v>1.038796925302337</v>
+        <v>0.9929939642717702</v>
       </c>
       <c r="F10">
-        <v>1.045061721176115</v>
+        <v>0.9925624920167458</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.029866718497014</v>
+        <v>1.036452587226834</v>
       </c>
       <c r="J10">
-        <v>1.032123505234657</v>
+        <v>1.006205339744939</v>
       </c>
       <c r="K10">
-        <v>1.033239168668101</v>
+        <v>1.015021534869469</v>
       </c>
       <c r="L10">
-        <v>1.042232560466174</v>
+        <v>1.007490877615428</v>
       </c>
       <c r="M10">
-        <v>1.048475252674943</v>
+        <v>1.007067344095736</v>
       </c>
       <c r="N10">
-        <v>1.014672345300848</v>
+        <v>1.005767747475736</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.025058143355024</v>
+        <v>0.9735268059460469</v>
       </c>
       <c r="D11">
-        <v>1.02928944554938</v>
+        <v>0.9981615218701364</v>
       </c>
       <c r="E11">
-        <v>1.0381228419226</v>
+        <v>0.9896542525435584</v>
       </c>
       <c r="F11">
-        <v>1.044293107990037</v>
+        <v>0.9887945574659689</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.029771093247723</v>
+        <v>1.035683335125951</v>
       </c>
       <c r="J11">
-        <v>1.031698762919186</v>
+        <v>1.004043932303072</v>
       </c>
       <c r="K11">
-        <v>1.03288160583057</v>
+        <v>1.013118192679051</v>
       </c>
       <c r="L11">
-        <v>1.041682093548769</v>
+        <v>1.00477394790246</v>
       </c>
       <c r="M11">
-        <v>1.047829737449639</v>
+        <v>1.00393093174034</v>
       </c>
       <c r="N11">
-        <v>1.014529110540685</v>
+        <v>1.005030785777682</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.024812395324517</v>
+        <v>0.9722014884345932</v>
       </c>
       <c r="D12">
-        <v>1.029110505688615</v>
+        <v>0.9972210304485674</v>
       </c>
       <c r="E12">
-        <v>1.037872589987436</v>
+        <v>0.9883995008901345</v>
       </c>
       <c r="F12">
-        <v>1.044007796632134</v>
+        <v>0.9873788704990337</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.02973531708455</v>
+        <v>1.035392146214109</v>
       </c>
       <c r="J12">
-        <v>1.031540943426437</v>
+        <v>1.003230773042342</v>
       </c>
       <c r="K12">
-        <v>1.032748659399949</v>
+        <v>1.012401665495815</v>
       </c>
       <c r="L12">
-        <v>1.041477646510307</v>
+        <v>1.003752374703811</v>
       </c>
       <c r="M12">
-        <v>1.047590044422325</v>
+        <v>1.002751932943643</v>
       </c>
       <c r="N12">
-        <v>1.014475874590485</v>
+        <v>1.004753493351653</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.024865106674181</v>
+        <v>0.9724865317655192</v>
       </c>
       <c r="D13">
-        <v>1.029148889207468</v>
+        <v>0.9974232697124887</v>
       </c>
       <c r="E13">
-        <v>1.037926263867558</v>
+        <v>0.9886693071085124</v>
       </c>
       <c r="F13">
-        <v>1.044068988476106</v>
+        <v>0.9876832850562269</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.029743002802882</v>
+        <v>1.035454857389014</v>
       </c>
       <c r="J13">
-        <v>1.031574798557472</v>
+        <v>1.00340567429665</v>
       </c>
       <c r="K13">
-        <v>1.032777182809066</v>
+        <v>1.01255580240221</v>
       </c>
       <c r="L13">
-        <v>1.041521500142961</v>
+        <v>1.003972077347292</v>
       </c>
       <c r="M13">
-        <v>1.047641455762764</v>
+        <v>1.003005478727671</v>
       </c>
       <c r="N13">
-        <v>1.014487295335487</v>
+        <v>1.00481313723614</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.025037828647737</v>
+        <v>0.9734175951275382</v>
       </c>
       <c r="D14">
-        <v>1.029274654466398</v>
+        <v>0.9980840054080755</v>
       </c>
       <c r="E14">
-        <v>1.038102153311129</v>
+        <v>0.989550829625511</v>
       </c>
       <c r="F14">
-        <v>1.044269520272849</v>
+        <v>0.9886778706620094</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.029768141213186</v>
+        <v>1.035659377824909</v>
       </c>
       <c r="J14">
-        <v>1.031685718554488</v>
+        <v>1.003976929977594</v>
       </c>
       <c r="K14">
-        <v>1.032870619119615</v>
+        <v>1.013059161690537</v>
       </c>
       <c r="L14">
-        <v>1.04166519346458</v>
+        <v>1.004689761031134</v>
       </c>
       <c r="M14">
-        <v>1.047809922714301</v>
+        <v>1.003833765569809</v>
       </c>
       <c r="N14">
-        <v>1.01452471069574</v>
+        <v>1.005007938227431</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.025144255490019</v>
+        <v>0.9739890508720824</v>
       </c>
       <c r="D15">
-        <v>1.029352141665217</v>
+        <v>0.9984896503019215</v>
       </c>
       <c r="E15">
-        <v>1.038210542192227</v>
+        <v>0.9900920534638429</v>
       </c>
       <c r="F15">
-        <v>1.044393099157128</v>
+        <v>0.9892885036983353</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.029783595814585</v>
+        <v>1.035784660682387</v>
       </c>
       <c r="J15">
-        <v>1.031754053242086</v>
+        <v>1.004327515830579</v>
       </c>
       <c r="K15">
-        <v>1.032928170885102</v>
+        <v>1.013368019564692</v>
       </c>
       <c r="L15">
-        <v>1.041753730441143</v>
+        <v>1.005130287701078</v>
       </c>
       <c r="M15">
-        <v>1.047913731381152</v>
+        <v>1.004342221485473</v>
       </c>
       <c r="N15">
-        <v>1.014547759275803</v>
+        <v>1.005127485363976</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.025763814518463</v>
+        <v>0.9772822677461601</v>
       </c>
       <c r="D16">
-        <v>1.029803135756209</v>
+        <v>1.00082886972937</v>
       </c>
       <c r="E16">
-        <v>1.038841680574068</v>
+        <v>0.9932136594136066</v>
       </c>
       <c r="F16">
-        <v>1.045112757548197</v>
+        <v>0.99281035192065</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.029873028813278</v>
+        <v>1.036502886237857</v>
       </c>
       <c r="J16">
-        <v>1.032151686768545</v>
+        <v>1.006347368664865</v>
       </c>
       <c r="K16">
-        <v>1.033262880436679</v>
+        <v>1.015146540994453</v>
       </c>
       <c r="L16">
-        <v>1.042269096050613</v>
+        <v>1.007669492383963</v>
       </c>
       <c r="M16">
-        <v>1.04851810460841</v>
+        <v>1.007273579014555</v>
       </c>
       <c r="N16">
-        <v>1.014681846795461</v>
+        <v>1.005816169057584</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.026152543243296</v>
+        <v>0.9793198127485061</v>
       </c>
       <c r="D17">
-        <v>1.030086018532436</v>
+        <v>1.002277440138549</v>
       </c>
       <c r="E17">
-        <v>1.039237812917293</v>
+        <v>0.9951472808904823</v>
       </c>
       <c r="F17">
-        <v>1.045564511155233</v>
+        <v>0.9949918474938191</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.029928669960309</v>
+        <v>1.036943907640383</v>
       </c>
       <c r="J17">
-        <v>1.032401019937994</v>
+        <v>1.007596570741088</v>
       </c>
       <c r="K17">
-        <v>1.033472599582852</v>
+        <v>1.016245655067914</v>
       </c>
       <c r="L17">
-        <v>1.04259240809302</v>
+        <v>1.009240934230839</v>
       </c>
       <c r="M17">
-        <v>1.048897354365065</v>
+        <v>1.009088261302094</v>
       </c>
       <c r="N17">
-        <v>1.014765898777983</v>
+        <v>1.006242026319471</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.026379316578273</v>
+        <v>0.9804984119518039</v>
       </c>
       <c r="D18">
-        <v>1.030251013950069</v>
+        <v>1.003115778045709</v>
       </c>
       <c r="E18">
-        <v>1.039468955090899</v>
+        <v>0.9962665633626714</v>
       </c>
       <c r="F18">
-        <v>1.045828130590333</v>
+        <v>0.9962546060416351</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.029960959396042</v>
+        <v>1.037197786166675</v>
       </c>
       <c r="J18">
-        <v>1.032546418527935</v>
+        <v>1.008318964046959</v>
       </c>
       <c r="K18">
-        <v>1.033594840209065</v>
+        <v>1.01688094496908</v>
       </c>
       <c r="L18">
-        <v>1.042781003683006</v>
+        <v>1.010150053481147</v>
       </c>
       <c r="M18">
-        <v>1.049118615565139</v>
+        <v>1.01013830457013</v>
       </c>
       <c r="N18">
-        <v>1.014814904060294</v>
+        <v>1.006488266405456</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.026456646263408</v>
+        <v>0.9808986376352545</v>
       </c>
       <c r="D19">
-        <v>1.030307272191975</v>
+        <v>1.003400527870798</v>
       </c>
       <c r="E19">
-        <v>1.039547782982808</v>
+        <v>0.9966467802746695</v>
       </c>
       <c r="F19">
-        <v>1.045918038218102</v>
+        <v>0.9966835612413838</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.029971941243759</v>
+        <v>1.037283787727429</v>
       </c>
       <c r="J19">
-        <v>1.032595990040821</v>
+        <v>1.008564237740712</v>
       </c>
       <c r="K19">
-        <v>1.033636506666591</v>
+        <v>1.017096591009129</v>
       </c>
       <c r="L19">
-        <v>1.042845312123784</v>
+        <v>1.010458791057536</v>
       </c>
       <c r="M19">
-        <v>1.049194068598533</v>
+        <v>1.010494935066335</v>
       </c>
       <c r="N19">
-        <v>1.014831610057833</v>
+        <v>1.006571867486706</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.026110832765877</v>
+        <v>0.9791022305211943</v>
       </c>
       <c r="D20">
-        <v>1.030055668430963</v>
+        <v>1.00212270753585</v>
       </c>
       <c r="E20">
-        <v>1.039195302883097</v>
+        <v>0.9949407132817649</v>
       </c>
       <c r="F20">
-        <v>1.045516029937846</v>
+        <v>0.9947588005699006</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.029922717266673</v>
+        <v>1.036896939325923</v>
       </c>
       <c r="J20">
-        <v>1.032374272282607</v>
+        <v>1.007463192866106</v>
       </c>
       <c r="K20">
-        <v>1.033450107491</v>
+        <v>1.016128334102587</v>
       </c>
       <c r="L20">
-        <v>1.042557718408162</v>
+        <v>1.00907311136433</v>
       </c>
       <c r="M20">
-        <v>1.048856659154048</v>
+        <v>1.008894440505221</v>
       </c>
       <c r="N20">
-        <v>1.014756882947389</v>
+        <v>1.006196560026155</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.024986964845089</v>
+        <v>0.9731438809334465</v>
       </c>
       <c r="D21">
-        <v>1.02923761992385</v>
+        <v>0.9978897396061102</v>
       </c>
       <c r="E21">
-        <v>1.038050354588768</v>
+        <v>0.9892916429225433</v>
       </c>
       <c r="F21">
-        <v>1.044210463526348</v>
+        <v>0.9883854426081192</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.02976074566086</v>
+        <v>1.035599303886659</v>
       </c>
       <c r="J21">
-        <v>1.031653056792369</v>
+        <v>1.003808998679526</v>
       </c>
       <c r="K21">
-        <v>1.032843108084797</v>
+        <v>1.012911202111605</v>
       </c>
       <c r="L21">
-        <v>1.041622878783291</v>
+        <v>1.004478768574731</v>
       </c>
       <c r="M21">
-        <v>1.047760311183563</v>
+        <v>1.003590248665074</v>
       </c>
       <c r="N21">
-        <v>1.014513693691416</v>
+        <v>1.004950673728859</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.024280655836066</v>
+        <v>0.9693021960201079</v>
       </c>
       <c r="D22">
-        <v>1.02872323906031</v>
+        <v>0.9951651637367167</v>
       </c>
       <c r="E22">
-        <v>1.037331247816246</v>
+        <v>0.9856570498978641</v>
       </c>
       <c r="F22">
-        <v>1.043390677189009</v>
+        <v>0.9842845399113184</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.029657422745232</v>
+        <v>1.034751762194456</v>
       </c>
       <c r="J22">
-        <v>1.031199303474358</v>
+        <v>1.00145148080528</v>
       </c>
       <c r="K22">
-        <v>1.032460701959304</v>
+        <v>1.010833012008138</v>
       </c>
       <c r="L22">
-        <v>1.041035229024694</v>
+        <v>1.001518100654062</v>
       </c>
       <c r="M22">
-        <v>1.04707145708849</v>
+        <v>1.000173886769235</v>
       </c>
       <c r="N22">
-        <v>1.014360604858359</v>
+        <v>1.004146687175357</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.024655054041482</v>
+        <v>0.9713481244706811</v>
       </c>
       <c r="D23">
-        <v>1.028995925682192</v>
+        <v>0.996615689678589</v>
       </c>
       <c r="E23">
-        <v>1.037712387011531</v>
+        <v>0.9875919500985002</v>
       </c>
       <c r="F23">
-        <v>1.043825159471691</v>
+        <v>0.9864677242661544</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.029712336812496</v>
+        <v>1.035204131757648</v>
       </c>
       <c r="J23">
-        <v>1.031439874661302</v>
+        <v>1.002707119797582</v>
       </c>
       <c r="K23">
-        <v>1.032663494656014</v>
+        <v>1.011940116156425</v>
       </c>
       <c r="L23">
-        <v>1.041346741683404</v>
+        <v>1.003094670501326</v>
       </c>
       <c r="M23">
-        <v>1.047436587664689</v>
+        <v>1.001992958166062</v>
       </c>
       <c r="N23">
-        <v>1.014441777715</v>
+        <v>1.0045749153798</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.02612967982868</v>
+        <v>0.9792005769851514</v>
       </c>
       <c r="D24">
-        <v>1.030069382351906</v>
+        <v>1.002192644860293</v>
       </c>
       <c r="E24">
-        <v>1.039214511075412</v>
+        <v>0.995034078705904</v>
       </c>
       <c r="F24">
-        <v>1.045537936144721</v>
+        <v>0.9948641342603921</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.029925407542855</v>
+        <v>1.036918172659945</v>
       </c>
       <c r="J24">
-        <v>1.032386358499384</v>
+        <v>1.007523479847008</v>
       </c>
       <c r="K24">
-        <v>1.033460270961804</v>
+        <v>1.016181364302169</v>
       </c>
       <c r="L24">
-        <v>1.042573393142882</v>
+        <v>1.009148966348642</v>
       </c>
       <c r="M24">
-        <v>1.048875047409818</v>
+        <v>1.008982045775114</v>
       </c>
       <c r="N24">
-        <v>1.014760956877476</v>
+        <v>1.006217110934515</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.027842251640741</v>
+        <v>0.9879286249754885</v>
       </c>
       <c r="D25">
-        <v>1.031314856836812</v>
+        <v>1.008407534749568</v>
       </c>
       <c r="E25">
-        <v>1.040960970480536</v>
+        <v>1.003336593978066</v>
       </c>
       <c r="F25">
-        <v>1.047530193380414</v>
+        <v>1.004231106776486</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.030166186238466</v>
+        <v>1.038775926700819</v>
       </c>
       <c r="J25">
-        <v>1.033483395239448</v>
+        <v>1.01286918203219</v>
       </c>
       <c r="K25">
-        <v>1.034381548687026</v>
+        <v>1.020876721660319</v>
       </c>
       <c r="L25">
-        <v>1.043997368147063</v>
+        <v>1.015883333499237</v>
       </c>
       <c r="M25">
-        <v>1.050546308643906</v>
+        <v>1.016764093432323</v>
       </c>
       <c r="N25">
-        <v>1.015130529137956</v>
+        <v>1.008038760755937</v>
       </c>
     </row>
   </sheetData>
